--- a/1-s2.0-S2352939317300374-mmc2.xlsx
+++ b/1-s2.0-S2352939317300374-mmc2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buddy\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6687E7F-7D7F-4E71-9559-BD3C4E6BC4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="84" windowWidth="22980" windowHeight="12960"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="food parameters" sheetId="4" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>publication</t>
   </si>
@@ -206,12 +212,15 @@
   </si>
   <si>
     <t>Zakrzewski et al.</t>
+  </si>
+  <si>
+    <t>aCHO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -305,6 +314,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -352,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,9 +397,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,6 +449,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -595,20 +641,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="1" max="1" width="23.3125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.20703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,8 +673,11 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -647,8 +696,11 @@
       <c r="F2" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -667,8 +719,11 @@
       <c r="F3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -687,8 +742,11 @@
       <c r="F4" s="4">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -707,8 +765,11 @@
       <c r="F5" s="6">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -727,8 +788,11 @@
       <c r="F6" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -747,8 +811,11 @@
       <c r="F7" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="5">
+        <v>138.19999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -767,8 +834,11 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -787,8 +857,11 @@
       <c r="F9" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -807,8 +880,11 @@
       <c r="F10" s="4">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -827,8 +903,11 @@
       <c r="F11" s="6">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -847,8 +926,11 @@
       <c r="F12" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -867,8 +949,11 @@
       <c r="F13" s="6">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -887,8 +972,11 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -907,8 +995,11 @@
       <c r="F15" s="6">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -927,8 +1018,11 @@
       <c r="F16" s="4">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="5">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -947,8 +1041,11 @@
       <c r="F17" s="6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -967,8 +1064,11 @@
       <c r="F18" s="4">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="5">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -987,8 +1087,11 @@
       <c r="F19" s="6">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1007,8 +1110,11 @@
       <c r="F20" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="5">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -1027,8 +1133,11 @@
       <c r="F21" s="6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1047,8 +1156,11 @@
       <c r="F22" s="4">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -1067,8 +1179,11 @@
       <c r="F23" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1087,8 +1202,11 @@
       <c r="F24" s="4">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
@@ -1107,8 +1225,11 @@
       <c r="F25" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="5">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1127,8 +1248,11 @@
       <c r="F26">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
@@ -1147,8 +1271,11 @@
       <c r="F27" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="5">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1167,8 +1294,11 @@
       <c r="F28" s="4">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -1187,8 +1317,11 @@
       <c r="F29" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="5">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1207,8 +1340,11 @@
       <c r="F30" s="4">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
@@ -1227,8 +1363,11 @@
       <c r="F31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="5">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1247,8 +1386,11 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5" t="s">
         <v>41</v>
       </c>
@@ -1267,8 +1409,11 @@
       <c r="F33" s="6">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="5">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1287,8 +1432,11 @@
       <c r="F34">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8" t="s">
         <v>44</v>
       </c>
@@ -1307,8 +1455,11 @@
       <c r="F35" s="6">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1327,8 +1478,11 @@
       <c r="F36" s="4">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8" t="s">
         <v>44</v>
       </c>
@@ -1347,8 +1501,11 @@
       <c r="F37" s="6">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1367,8 +1524,11 @@
       <c r="F38" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5" t="s">
         <v>48</v>
       </c>
@@ -1387,8 +1547,11 @@
       <c r="F39" s="6">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1407,8 +1570,11 @@
       <c r="F40" s="4">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="5" t="s">
         <v>51</v>
       </c>
@@ -1427,8 +1593,11 @@
       <c r="F41" s="6">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1447,8 +1616,11 @@
       <c r="F42" s="4">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="5" t="s">
         <v>51</v>
       </c>
@@ -1467,8 +1639,11 @@
       <c r="F43" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1487,8 +1662,11 @@
       <c r="F44" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="5" t="s">
         <v>51</v>
       </c>
@@ -1507,8 +1685,11 @@
       <c r="F45" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1527,8 +1708,11 @@
       <c r="F46" s="4">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="5">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="5" t="s">
         <v>51</v>
       </c>
@@ -1547,8 +1731,11 @@
       <c r="F47" s="6">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1567,8 +1754,11 @@
       <c r="F48" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="5">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="5" t="s">
         <v>51</v>
       </c>
@@ -1587,8 +1777,11 @@
       <c r="F49" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1607,8 +1800,11 @@
       <c r="F50" s="4">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="5">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="5" t="s">
         <v>63</v>
       </c>
@@ -1627,8 +1823,11 @@
       <c r="F51" s="6">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -1646,6 +1845,9 @@
       </c>
       <c r="F52" s="4">
         <v>11</v>
+      </c>
+      <c r="G52" s="5">
+        <v>61.7</v>
       </c>
     </row>
   </sheetData>

--- a/1-s2.0-S2352939317300374-mmc2.xlsx
+++ b/1-s2.0-S2352939317300374-mmc2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Desktop\steph_branch\ainutrition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B2BEB3-E625-44E3-8FDB-031F69C6509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6E4314-8679-424E-8377-EE9063FCE3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10215" yWindow="960" windowWidth="10275" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="food parameters" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>publication</t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t>aCHO</t>
+  </si>
+  <si>
+    <t>Index of study</t>
+  </si>
+  <si>
+    <t>Index on these two might need to be switched,</t>
+  </si>
+  <si>
+    <t>but I think it is just an inconsistency in their excel sheets</t>
   </si>
 </sst>
 </file>
@@ -270,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +309,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -315,7 +330,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -334,6 +349,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -674,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D45" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +703,7 @@
     <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,8 +725,11 @@
       <c r="G1" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -731,8 +751,11 @@
       <c r="G2" s="10">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -754,8 +777,11 @@
       <c r="G3" s="11">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -777,8 +803,11 @@
       <c r="G4" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -800,8 +829,11 @@
       <c r="G5" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -823,8 +855,11 @@
       <c r="G6" s="10">
         <v>78.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -846,8 +881,11 @@
       <c r="G7" s="11">
         <v>138.19999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -869,8 +907,11 @@
       <c r="G8" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -892,8 +933,11 @@
       <c r="G9" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -915,8 +959,11 @@
       <c r="G10" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -938,8 +985,11 @@
       <c r="G11" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -961,8 +1011,11 @@
       <c r="G12" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -984,8 +1037,11 @@
       <c r="G13" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1007,8 +1063,11 @@
       <c r="G14" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -1030,8 +1089,11 @@
       <c r="G15" s="10">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1053,8 +1115,11 @@
       <c r="G16" s="11">
         <v>96.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1076,8 +1141,11 @@
       <c r="G17" s="10">
         <v>53.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1099,8 +1167,11 @@
       <c r="G18" s="11">
         <v>36.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1122,8 +1193,11 @@
       <c r="G19" s="10">
         <v>37.299999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1145,8 +1219,18 @@
       <c r="G20" s="11">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>125</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -1168,8 +1252,19 @@
       <c r="G21" s="10">
         <v>65.099999999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="5">
+        <v>124</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1191,8 +1286,11 @@
       <c r="G22" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -1214,8 +1312,11 @@
       <c r="G23" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1237,8 +1338,11 @@
       <c r="G24" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
@@ -1260,8 +1364,11 @@
       <c r="G25" s="11">
         <v>41.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1283,8 +1390,11 @@
       <c r="G26" s="10">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
@@ -1306,8 +1416,11 @@
       <c r="G27" s="11">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1329,8 +1442,11 @@
       <c r="G28" s="10">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -1352,8 +1468,11 @@
       <c r="G29" s="11">
         <v>53.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1375,8 +1494,11 @@
       <c r="G30" s="10">
         <v>52.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
@@ -1398,8 +1520,11 @@
       <c r="G31" s="11">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1421,8 +1546,11 @@
       <c r="G32" s="10">
         <v>74.599999999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>41</v>
       </c>
@@ -1444,8 +1572,11 @@
       <c r="G33" s="11">
         <v>45.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="5">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1467,8 +1598,11 @@
       <c r="G34" s="10">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>44</v>
       </c>
@@ -1490,8 +1624,11 @@
       <c r="G35" s="11">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1513,8 +1650,11 @@
       <c r="G36" s="10">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>44</v>
       </c>
@@ -1536,8 +1676,11 @@
       <c r="G37" s="11">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1559,8 +1702,11 @@
       <c r="G38" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>48</v>
       </c>
@@ -1582,8 +1728,11 @@
       <c r="G39" s="10">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1605,8 +1754,11 @@
       <c r="G40" s="10">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>51</v>
       </c>
@@ -1628,8 +1780,11 @@
       <c r="G41" s="11">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1651,8 +1806,11 @@
       <c r="G42" s="10">
         <v>104</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>51</v>
       </c>
@@ -1674,8 +1832,11 @@
       <c r="G43" s="11">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1697,8 +1858,11 @@
       <c r="G44" s="10">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>51</v>
       </c>
@@ -1720,8 +1884,11 @@
       <c r="G45" s="10">
         <v>50.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1743,8 +1910,11 @@
       <c r="G46" s="11">
         <v>41.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>51</v>
       </c>
@@ -1766,8 +1936,11 @@
       <c r="G47" s="10">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1789,8 +1962,11 @@
       <c r="G48" s="11">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>51</v>
       </c>
@@ -1812,8 +1988,11 @@
       <c r="G49" s="10">
         <v>46.7</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1835,8 +2014,11 @@
       <c r="G50" s="11">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>63</v>
       </c>
@@ -1858,8 +2040,11 @@
       <c r="G51" s="10">
         <v>65.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -1881,8 +2066,12 @@
       <c r="G52" s="11">
         <v>61.7</v>
       </c>
+      <c r="H52">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1-s2.0-S2352939317300374-mmc2.xlsx
+++ b/1-s2.0-S2352939317300374-mmc2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Desktop\steph_branch\ainutrition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6E4314-8679-424E-8377-EE9063FCE3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3FA2C3-B3F0-426E-9953-755D12EF6C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,7 +330,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -350,7 +350,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -693,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D45" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1221,7 @@
       <c r="H20">
         <v>125</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="12" t="s">
         <v>66</v>
       </c>
       <c r="J20" s="12"/>
